--- a/Projects/07_csv_processing/bmi_table.xlsx
+++ b/Projects/07_csv_processing/bmi_table.xlsx
@@ -1,37 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>BMI</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +63,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,2837 +379,2825 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Height</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Weight</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>BMI</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>167.0812</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>51.24263038548752</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>18.4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>181.6608</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>61.90022675736962</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>18.8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>176.276</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>69.40136054421768</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>22.3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>173.2788</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>64.55328798185941</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>21.5</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>172.1866</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>65.4421768707483</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>22.1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>174.498</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>55.91836734693877</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>18.4</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>177.292</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>64.16780045351474</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>20.4</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>177.8254</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>61.88662131519275</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>19.6</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>172.466</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>50.96145124716553</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>17.1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>169.6212</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>54.72562358276644</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>19</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>168.8846</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>57.80045351473923</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>20.3</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>171.7548</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>51.7641723356009</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>17.5</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>173.482</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>56.96598639455782</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>18.9</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>170.4848</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>55.53741496598639</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>19.1</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>173.4312</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>52.64852607709751</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>17.5</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>180.5686</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>63.49206349206349</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>19.5</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>168.8084</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>58.73015873015873</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>20.6</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>174.371</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>64.83900226757369</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>21.3</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>180.9242</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>62.53968253968254</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>19.1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>170.5102</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>56.25396825396825</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>19.3</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>172.2882</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>64.07256235827664</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>21.6</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>174.9552</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>65.09750566893423</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>21.3</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>161.2392</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>44.39909297052154</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>17.1</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>173.7868</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>58.73015873015873</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>19.4</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>171.7802</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>64.33106575963718</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>21.8</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>170.7134</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>58.82993197278911</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>20.2</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>179.9336</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>64.58956916099773</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>19.9</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>171.4246</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>59.65986394557824</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>20.3</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>168.9862</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>49.12925170068027</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>17.2</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>166.2176</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>51.65079365079365</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>18.7</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>176.5808</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>46.84807256235828</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>15</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>167.1574</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>54.76190476190476</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>19.6</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>172.2628</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>57.04761904761905</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>19.2</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>179.324</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>61.77777777777778</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>19.2</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>182.372</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>63.53741496598639</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>19.1</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>175.7934</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>58.39002267573696</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>18.9</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>169.672</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>64.30839002267574</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>22.3</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>171.8564</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>54.97959183673469</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>18.6</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>172.2374</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>59.56916099773242</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>20.1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>162.687</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>48.39455782312925</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>18.3</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>174.1678</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>56.39909297052154</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>18.6</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>165.5572</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>56.62585034013605</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>20.7</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>176.9364</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>63.34240362811791</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>20.2</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>172.6438</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>62.29931972789116</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>20.9</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>167.5892</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>48.27664399092971</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>17.2</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>174.4218</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>58.39455782312925</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>19.2</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>169.8752</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>66.06802721088435</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>22.9</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>171.958</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>52.97959183673469</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>17.9</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>177.3428</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>65.13378684807256</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>20.7</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>175.4886</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>61.19274376417233</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>19.9</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>177.5714</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>66.67573696145125</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>21.1</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>171.0182</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>57.29251700680272</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>19.6</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>178.4858</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>56.90702947845805</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>17.9</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>175.514</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>52.47619047619047</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>17</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>166.0652</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>56.00453514739229</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>20.3</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>178.2572</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>67.0702947845805</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>21.1</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>178.8414</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>70.70294784580499</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>22.1</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>169.0116</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>58.08163265306122</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>20.3</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>168.5544</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>54.1360544217687</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>19.1</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>171.5516</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>60.68480725623583</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>20.6</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>168.91</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>58.38095238095237</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>20.5</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>175.26</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>62.38095238095239</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>20.3</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>173.482</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>58.84807256235827</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>19.6</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>170.2054</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>58.42176870748299</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>20.2</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>179.8574</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>61.36961451247165</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>19</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>173.2788</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>49.70975056689342</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>16.6</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>175.4124</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>64.61224489795919</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>21</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>172.0342</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>60.20408163265306</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>20.3</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>170.7388</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>46.95238095238095</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>16.1</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>171.1198</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>56.56689342403628</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>19.3</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>165.7858</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>58.64399092970521</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>21.3</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>179.9336</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>60.78004535147392</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>18.8</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>177.5968</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>63.67346938775511</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>20.2</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>163.2966</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>46.63945578231292</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>17.5</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>173.355</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>58.28571428571429</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>19.4</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>168.5544</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>54.55782312925169</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>19.2</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>173.6344</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>62.85714285714285</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>20.8</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>166.3192</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>60.29931972789116</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>21.8</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>177.0888</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>52.43537414965986</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>16.7</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>172.0342</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>55.56462585034014</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>18.8</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>174.3456</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>61.05668934240362</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>20.1</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>169.6212</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>55.28344671201814</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>19.2</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>177.927</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>70.46712018140589</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>22.3</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>168.3512</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>58.47619047619047</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>20.6</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>175.768</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>58.54875283446712</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>19</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>175.5902</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>63.25170068027211</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>20.5</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>171.0944</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>63.89569160997732</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>21.8</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>178.0286</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>59.67800453514739</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>18.8</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>178.2572</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>54.9297052154195</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>17.3</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>173.3042</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>59.64172335600907</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>19.9</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>173.0502</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>61.92743764172336</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>20.7</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:4">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>178.4096</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>64.16780045351474</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>20.2</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:4">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>181.5846</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>63.7687074829932</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>19.3</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>175.768</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>50.85714285714285</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>16.5</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>177.9524</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>60.52607709750567</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>19.1</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>179.2224</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>59.77324263038549</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>18.6</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:4">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>168.3766</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>54.43537414965986</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>19.2</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>161.1122</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>55.82766439909297</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>21.5</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>169.5958</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>58.11337868480724</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>20.2</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>174.9806</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>52.3718820861678</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>17.1</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:4">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>164.7698</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>46.29931972789116</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>17.1</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:4">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>170.4086</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>59.1156462585034</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>20.4</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    <row r="104" spans="1:4">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>173.609</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>60.85260770975056</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>20.2</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    <row r="105" spans="1:4">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>166.6494</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>44.73469387755102</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>16.1</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    <row r="106" spans="1:4">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>172.1104</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>51.95464852607709</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>17.5</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    <row r="107" spans="1:4">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>172.7708</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>56.00453514739229</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>18.8</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    <row r="108" spans="1:4">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>171.8564</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>55.80498866213151</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>18.9</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    <row r="109" spans="1:4">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>168.4274</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>57.36054421768708</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>20.2</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    <row r="110" spans="1:4">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>176.3776</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>58.24036281179138</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>18.7</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    <row r="111" spans="1:4">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>162.1536</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>57.68253968253968</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>21.9</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    <row r="112" spans="1:4">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>172.0088</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>55.35600907029478</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>18.7</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>177.927</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>57.87301587301587</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>18.3</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>178.2826</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>59.70068027210883</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>18.8</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>167.513</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>50.74829931972789</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>18.1</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>177.8254</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>55.3469387755102</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>17.5</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>174.2694</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>58.29931972789116</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>19.2</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>174.7774</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>60.17233560090703</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>19.7</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>177.1904</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>61.70521541950113</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>19.7</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>166.2684</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>52.58049886621315</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>19</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>174.8282</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>62.08616780045352</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>20.3</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>167.132</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>54.3673469387755</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>19.5</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>170.7134</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>49.43764172335601</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>17</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>176.3268</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>58.17233560090703</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>18.7</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>175.1076</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>61.35600907029478</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>20</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>172.5676</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>48.46258503401361</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>16.3</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>166.7002</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>55.91383219954648</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>20.1</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>168.91</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>49.66439909297052</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>17.4</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>172.5422</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>54.10884353741496</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>18.2</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>174.9806</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>63.60090702947846</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>20.8</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>178.4096</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>60.76190476190475</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>19.1</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>173.4058</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>60.12698412698413</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>20</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>180.9242</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>59.27437641723355</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>18.1</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>175.514</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>52.40816326530612</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>17</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>163.576</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>56.140589569161</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>21</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>180.594</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>58.11337868480724</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>17.8</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>173.2788</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>61.65986394557823</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>20.5</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>167.4368</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>52.89342403628117</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>18.9</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>171.2976</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>57.51473922902494</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>19.6</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>187.706</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>68.65759637188208</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>19.5</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>177.7492</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>59.13832199546486</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>18.7</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>176.5808</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>61.77324263038549</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>19.8</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>165.5572</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>51.42857142857143</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>18.8</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>172.7454</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>56.83900226757369</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>19</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>173.5836</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>57.859410430839</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>19.2</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>165.5572</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>48.59863945578231</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>17.7</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>173.3804</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>52.81632653061224</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>17.6</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>174.1678</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>60.6984126984127</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>20</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>163.83</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>51.19727891156462</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>19.1</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>174.5234</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>59.3015873015873</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>19.5</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>174.9806</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>62.47619047619047</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>20.4</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>176.6316</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>56.87074829931973</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>18.2</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>171.196</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>62.79818594104308</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>21.4</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>168.8592</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>54.79365079365079</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>19.2</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>167.6654</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>63.56009070294785</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>22.6</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>183.9976</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>62.01360544217687</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>18.3</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>162.8902</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>48.12244897959184</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>18.1</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>180.2892</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>72.09070294784581</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>22.2</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>171.45</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>49.33786848072562</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>16.8</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>182.9308</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>62.93877551020408</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>18.8</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>165.8874</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>52.56689342403628</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>19.1</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>170.3832</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>66.34467120181405</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>22.9</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>163.5506</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>49.83219954648526</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>18.6</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>176.1998</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>63.06122448979592</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>20.3</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>173.6852</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>54.37641723356009</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>18</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>165.8874</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>58.19047619047619</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>21.1</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>170.5356</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>57.70521541950113</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>19.8</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>173.7106</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>52.25850340136054</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>17.3</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>168.3766</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>56.59863945578231</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>20</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>170.6626</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>57.57369614512471</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>19.8</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>167.6146</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>50.4625850340136</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>18</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>176.3522</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>55.60544217687075</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>17.9</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>172.6438</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>56.33106575963718</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>18.9</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>172.1104</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>56.53061224489796</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>19.1</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>165.8112</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>54.20408163265306</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>19.7</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>187.5282</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>63.17460317460318</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>18</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>169.6974</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>47.54195011337868</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>16.5</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>169.9006</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>55.80045351473923</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>19.3</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>166.9796</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>53.91836734693877</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>19.3</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>167.5892</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>55.09750566893424</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>19.6</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>169.1132</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>54.08163265306122</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>18.9</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>170.4594</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>61.23356009070295</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>21.1</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>167.3098</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>52.71201814058957</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>18.8</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>169.6212</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>49.51020408163265</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>17.2</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>174.5996</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>56.33560090702947</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>18.5</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>168.2242</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>64.01814058956916</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>22.6</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>167.5384</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>58.57142857142857</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>20.9</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>174.1932</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>57.99092970521542</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>19.1</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>169.1386</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>54.8390022675737</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>19.2</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>170.1038</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>57.89115646258504</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>20</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>172.9232</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>46.01814058956916</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>15.4</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>178.2826</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>65.75510204081633</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>20.7</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>166.4208</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>50.31746031746032</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>18.2</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>171.3484</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>60.25396825396826</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>20.5</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>171.2214</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>66.36734693877551</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>22.6</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>176.9364</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>66.02721088435374</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>21.1</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>167.132</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>54.80272108843538</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>19.6</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>167.9194</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>52.50793650793651</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>18.6</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>173.3296</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>58.1859410430839</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>19.4</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>172.7708</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>57.80952380952381</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>19.4</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>181.3306</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>57.9954648526077</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>17.6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>